--- a/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2013 (J13).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Judge Gift Cards 2013 (J13).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A38"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,259 +444,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bribery</t>
+          <t>('Bribery', ['{3}{U}{U}', 'Sorcery', 'Search target opponent’s library for a creature card and put that card onto the battlefield under your control. Then that player shuffles their library.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{U}{U}</t>
+          <t>('Crucible of Worlds', ['{3}', 'Artifact', 'You may play lands from your graveyard.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Genesis', ['{4}{G}', 'Creature — Incarnation', 'At the beginning of your upkeep, if Genesis is in your graveyard, you may pay {2}{G}. If you do, return target creature card from your graveyard to your hand.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Search target opponent’s library for a creature card and put that card onto the battlefield under your control. Then that player shuffles their library.</t>
+          <t>('Golem', ['Token Enchantment Artifact Creature — Golem', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Crucible of Worlds</t>
+          <t>('Imperial Recruiter', ['{2}{R}', 'Creature — Human Advisor', 'When Imperial Recruiter enters the battlefield, search your library for a creature card with power 2 or less, reveal it, put it into your hand, then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{3}</t>
+          <t>('Overwhelming Forces', ['{6}{B}{B}', 'Sorcery', 'Destroy all creatures target opponent controls. Draw a card for each creature destroyed this way.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Artifact</t>
+          <t>('Show and Tell', ['{2}{U}', 'Sorcery', 'Each player may put an artifact, creature, enchantment, or land card from their hand onto the battlefield.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>You may play lands from your graveyard.</t>
+          <t>('Swords to Plowshares', ['{W}', 'Instant', 'Exile target creature. Its controller gains life equal to its power.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Genesis</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{4}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Creature — Incarnation</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep, if Genesis is in your graveyard, you may pay {2}{G}. If you do, return target creature card from your graveyard to your hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Token Enchantment Artifact Creature — Golem</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Imperial Recruiter</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{2}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Creature — Human Advisor</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>When Imperial Recruiter enters the battlefield, search your library for a creature card with power 2 or less, reveal it, put it into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Overwhelming Forces</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{6}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Destroy all creatures target opponent controls. Draw a card for each creature destroyed this way.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Show and Tell</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Each player may put an artifact, creature, enchantment, or land card from their hand onto the battlefield.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Swords to Plowshares</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Exile target creature. Its controller gains life equal to its power.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Vindicate</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>{1}{W}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Destroy target permanent.</t>
+          <t>('Vindicate', ['{1}{W}{B}', 'Sorcery', 'Destroy target permanent.'])</t>
         </is>
       </c>
     </row>
